--- a/DSP_H2_2025/Tháng 10/NewEleven_20251012_20251012_DSP Product.xlsx
+++ b/DSP_H2_2025/Tháng 10/NewEleven_20251012_20251012_DSP Product.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Creative Asset</t>
   </si>
@@ -242,10 +242,13 @@
     <t>B0F17F23MZ-Dads-Tumbler</t>
   </si>
   <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>B0CY4G9VSR-Dads-Hats</t>
+  </si>
+  <si>
     <t>B0DH7PQ1RX-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0CY4G9VSR-Dads-Hats</t>
   </si>
   <si>
     <t>Total</t>
@@ -1474,7 +1477,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="952500" cy="800100"/>
+    <xdr:ext cx="952500" cy="790575"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="38" name="" descr=""/>
@@ -1534,7 +1537,7 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:ext cx="952500" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="40" name="" descr=""/>
@@ -1544,6 +1547,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1850,10 +1883,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:AL41"/>
+      <selection activeCell="A1" sqref="A1:AL42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="20" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2029,7 +2062,7 @@
         <v>0.32</v>
       </c>
       <c r="F2" s="7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G2" s="6">
         <v>2.6</v>
@@ -2062,7 +2095,7 @@
         <v>26</v>
       </c>
       <c r="Q2" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R2" s="9">
         <v>9</v>
@@ -2080,7 +2113,7 @@
         <v>0.4</v>
       </c>
       <c r="W2" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X2" s="8">
         <v>0.0013</v>
@@ -2968,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>6224</v>
+        <v>6223</v>
       </c>
       <c r="P10" s="9">
         <v>15</v>
@@ -3046,19 +3079,19 @@
         <v>47</v>
       </c>
       <c r="C11" s="7">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="D11" s="7">
         <v>17.98</v>
       </c>
       <c r="E11" s="7">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F11" s="7">
         <v>0.6</v>
       </c>
       <c r="G11" s="6">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="H11" s="8">
         <v>1</v>
@@ -3073,16 +3106,16 @@
         <v>0.0006</v>
       </c>
       <c r="L11" s="7">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="M11" s="6">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="N11" s="8">
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="P11" s="9">
         <v>16</v>
@@ -3121,10 +3154,10 @@
         <v>0.0006</v>
       </c>
       <c r="AB11" s="7">
-        <v>3.32</v>
+        <v>3.31</v>
       </c>
       <c r="AC11" s="7">
-        <v>3.32</v>
+        <v>3.31</v>
       </c>
       <c r="AD11" s="7">
         <v>17.98</v>
@@ -3136,10 +3169,10 @@
         <v>17.98</v>
       </c>
       <c r="AG11" s="6">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AH11" s="6">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AI11" s="9">
         <v>1</v>
@@ -3151,7 +3184,7 @@
         <v>0.0003</v>
       </c>
       <c r="AL11" s="7">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="12" spans="1:38" customHeight="1" ht="90">
@@ -3748,13 +3781,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0058</v>
+        <v>0.0059</v>
       </c>
       <c r="J17" s="8">
         <v>0.0088</v>
       </c>
       <c r="K17" s="8">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
       <c r="L17" s="7">
         <v>3.03</v>
@@ -3766,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="P17" s="9">
         <v>18</v>
@@ -3793,7 +3826,7 @@
         <v>26</v>
       </c>
       <c r="X17" s="8">
-        <v>0.0084</v>
+        <v>0.0085</v>
       </c>
       <c r="Y17" s="7">
         <v>0.23</v>
@@ -3802,7 +3835,7 @@
         <v>2</v>
       </c>
       <c r="AA17" s="8">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
       <c r="AB17" s="7">
         <v>3.03</v>
@@ -3829,10 +3862,10 @@
         <v>2</v>
       </c>
       <c r="AJ17" s="8">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
       <c r="AK17" s="8">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
       <c r="AL17" s="7">
         <v>3.03</v>
@@ -4081,7 +4114,7 @@
         <v>0.54</v>
       </c>
       <c r="F20" s="7">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="G20" s="6">
         <v>4.37</v>
@@ -4093,7 +4126,7 @@
         <v>0.003</v>
       </c>
       <c r="J20" s="8">
-        <v>0.0031</v>
+        <v>0.0033</v>
       </c>
       <c r="K20" s="8">
         <v>0.0001</v>
@@ -4108,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>9662</v>
+        <v>9661</v>
       </c>
       <c r="P20" s="9">
         <v>29</v>
       </c>
       <c r="Q20" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R20" s="9">
         <v>1</v>
@@ -4132,13 +4165,13 @@
         <v>0.18</v>
       </c>
       <c r="W20" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X20" s="8">
-        <v>0.0026</v>
+        <v>0.0028</v>
       </c>
       <c r="Y20" s="7">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="Z20" s="9">
         <v>0</v>
@@ -4336,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <v>9566</v>
+        <v>9565</v>
       </c>
       <c r="P22" s="9">
         <v>28</v>
@@ -5140,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R29" s="9">
         <v>4</v>
@@ -5254,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R30" s="9">
         <v>0</v>
@@ -5272,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="8">
         <v>0</v>
@@ -6241,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="7">
-        <v>0</v>
+        <v>18.52</v>
       </c>
       <c r="E39" s="7">
         <v>0</v>
@@ -6280,16 +6313,16 @@
         <v>0</v>
       </c>
       <c r="Q39" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="9">
         <v>0</v>
       </c>
       <c r="S39" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T39" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U39" s="9">
         <v>0</v>
@@ -6319,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="AD39" s="7">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="AE39" s="7">
         <v>0</v>
@@ -6334,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ39" s="8">
         <v>0</v>
@@ -6466,112 +6499,226 @@
         <v>77</v>
       </c>
       <c r="C41" s="7">
-        <v>147.01</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>370.06</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0</v>
+      </c>
+      <c r="P41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>1</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <v>0</v>
+      </c>
+      <c r="U41" s="9">
+        <v>0</v>
+      </c>
+      <c r="V41" s="7">
+        <v>0</v>
+      </c>
+      <c r="W41" s="9">
+        <v>0</v>
+      </c>
+      <c r="X41" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" customHeight="1" ht="90">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="7">
+        <v>147</v>
+      </c>
+      <c r="D42" s="7">
+        <v>388.58</v>
+      </c>
+      <c r="E42" s="7">
         <v>0.88</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F42" s="7">
         <v>0.21</v>
       </c>
-      <c r="G41" s="6">
-        <v>2.52</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0.7917</v>
-      </c>
-      <c r="I41" s="8">
+      <c r="G42" s="6">
+        <v>2.64</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.6552</v>
+      </c>
+      <c r="I42" s="8">
         <v>0.0026</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J42" s="8">
         <v>0.0043</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K42" s="8">
         <v>0.0005</v>
       </c>
-      <c r="L41" s="7">
-        <v>6.13</v>
-      </c>
-      <c r="M41" s="6">
+      <c r="L42" s="7">
+        <v>5.07</v>
+      </c>
+      <c r="M42" s="6">
+        <v>2.03</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>166556</v>
+      </c>
+      <c r="P42" s="9">
+        <v>428</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>712</v>
+      </c>
+      <c r="R42" s="9">
+        <v>78</v>
+      </c>
+      <c r="S42" s="9">
+        <v>29</v>
+      </c>
+      <c r="T42" s="9">
+        <v>29</v>
+      </c>
+      <c r="U42" s="9">
+        <v>4</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="W42" s="9">
+        <v>529</v>
+      </c>
+      <c r="X42" s="8">
+        <v>0.0032</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>0.28</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>49</v>
+      </c>
+      <c r="AA42" s="8">
+        <v>0.0003</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>1.88</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>298.53</v>
+      </c>
+      <c r="AE42" s="7">
+        <v>312.13</v>
+      </c>
+      <c r="AF42" s="7">
+        <v>294.51</v>
+      </c>
+      <c r="AG42" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="AH42" s="6">
         <v>2</v>
       </c>
-      <c r="N41" s="8">
-        <v>0</v>
-      </c>
-      <c r="O41" s="9">
-        <v>166561</v>
-      </c>
-      <c r="P41" s="9">
-        <v>428</v>
-      </c>
-      <c r="Q41" s="9">
-        <v>709</v>
-      </c>
-      <c r="R41" s="9">
-        <v>78</v>
-      </c>
-      <c r="S41" s="9">
-        <v>24</v>
-      </c>
-      <c r="T41" s="9">
-        <v>24</v>
-      </c>
-      <c r="U41" s="9">
-        <v>4</v>
-      </c>
-      <c r="V41" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="W41" s="9">
-        <v>525</v>
-      </c>
-      <c r="X41" s="8">
-        <v>0.0032</v>
-      </c>
-      <c r="Y41" s="7">
-        <v>0.28</v>
-      </c>
-      <c r="Z41" s="9">
-        <v>49</v>
-      </c>
-      <c r="AA41" s="8">
-        <v>0.0003</v>
-      </c>
-      <c r="AB41" s="7">
-        <v>1.88</v>
-      </c>
-      <c r="AC41" s="7">
-        <v>3</v>
-      </c>
-      <c r="AD41" s="7">
-        <v>294.51</v>
-      </c>
-      <c r="AE41" s="7">
-        <v>312.13</v>
-      </c>
-      <c r="AF41" s="7">
-        <v>294.51</v>
-      </c>
-      <c r="AG41" s="6">
-        <v>2.12</v>
-      </c>
-      <c r="AH41" s="6">
-        <v>2</v>
-      </c>
-      <c r="AI41" s="9">
-        <v>16</v>
-      </c>
-      <c r="AJ41" s="8">
+      <c r="AI42" s="9">
+        <v>19</v>
+      </c>
+      <c r="AJ42" s="8">
+        <v>0.0002</v>
+      </c>
+      <c r="AK42" s="8">
         <v>0.0001</v>
       </c>
-      <c r="AK41" s="8">
-        <v>0.0001</v>
-      </c>
-      <c r="AL41" s="7">
-        <v>9.19</v>
+      <c r="AL42" s="7">
+        <v>7.74</v>
       </c>
     </row>
   </sheetData>
